--- a/biology/Botanique/Lamprodila/Lamprodila.xlsx
+++ b/biology/Botanique/Lamprodila/Lamprodila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lampra, Scintillatrix
 Lamprodila est un genre d'insectes coléoptères de la famille des Buprestidae et de la  sous-famille des Chrysochroinae.
@@ -512,9 +524,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 févr. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 févr. 2015) :
 Lampra Lacordaire, 1832 nec Huebner, 1821
 Scintillatrix Obenberger, 1956</t>
         </is>
@@ -544,11 +558,48 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre comprend beaucoup d'espèces et bien des synonymes répertoriés dans BioLib et WorldCat.
-Espèces européennes
-Selon Fauna Europaea                                      (25 mars 2023)[2] : Lamprodila est synonyme du sous-genre Ovalisia (Scintillatrix)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend beaucoup d'espèces et bien des synonymes répertoriés dans BioLib et WorldCat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lamprodila</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lamprodila</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (25 mars 2023) : Lamprodila est synonyme du sous-genre Ovalisia (Scintillatrix)
 Lamprodila achaica
 Lamprodila dives
 Lamprodila gloriosa
@@ -558,33 +609,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Lamprodila</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lamprodila</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, il existe une seule espèce fossile référencée[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, il existe une seule espèce fossile référencée :
 †Lamprodila gautieri Bruyant 1902
 </t>
         </is>
